--- a/Income/F_inc.xlsx
+++ b/Income/F_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.0443</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0574</v>
+        <v>0.0751</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.0563</v>
+        <v>0.074</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0873</v>
+        <v>0.1027</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1212</v>
+        <v>0.136</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1414</v>
@@ -3505,16 +3505,16 @@
         <v>0.0227</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.0433</v>
+        <v>0.0428</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.0252</v>
+        <v>0.0247</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.0405</v>
+        <v>0.0401</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.0585</v>
+        <v>0.0581</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.0645</v>
